--- a/Scenariusze testowe/Scenariusz testowy AptekaSlonik 03 2019-002.xlsx
+++ b/Scenariusze testowe/Scenariusz testowy AptekaSlonik 03 2019-002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulina1\Documents\Paulina\cherry IT kurs\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC02E97-02C4-48B6-AD5D-D459C58EB8F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F617413-C827-4E6D-BC67-2231E62978BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{AA6BAAD2-631F-4549-88B0-7364E864D4E9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>Nr dokumentu</t>
   </si>
@@ -116,15 +116,9 @@
     <t>AptekaSlonik/03/2019-002</t>
   </si>
   <si>
-    <t>Zarządzanie swoim kontem po zalogowaniu się jako klient - przypadek pozytywny.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sprawdzenie, czy można edytować dane klienta wpisując niepoprawne dane. </t>
   </si>
   <si>
-    <t xml:space="preserve">Edytowanie danych klienta - przypadek negatywny. </t>
-  </si>
-  <si>
     <t>Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl/. Zalogowanie się na stronie http://www.aptekaslonik.pl/.</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>Komunikat potwierdzający zmianę danych.</t>
   </si>
   <si>
-    <t>Zmiana hasła - przypadek negatywny.</t>
-  </si>
-  <si>
     <t>Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl. W historii zamówień powinna być przynajmniej jedna pozycja.</t>
   </si>
   <si>
@@ -207,13 +198,31 @@
   </si>
   <si>
     <t>5.</t>
+  </si>
+  <si>
+    <t>Przeglądanie historii zamówień jako klient.</t>
+  </si>
+  <si>
+    <t>Edycja danych osobowych jako klient.</t>
+  </si>
+  <si>
+    <t>Zmiana hasła.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zmiana danych klienta na nieprawidłowe - przypadek negatywny. </t>
+  </si>
+  <si>
+    <t>Zmiana hasła podając za krótkie hasło lub błędnie powtarzając nowe hasło - przypadek negatywny.</t>
+  </si>
+  <si>
+    <t>http://www.aptekaslonik.pl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +240,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -830,10 +848,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -917,6 +936,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -949,15 +992,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -967,23 +1001,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1298,14 +1319,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED647B1-7B53-440F-884C-A63E6CFD1A77}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="41.77734375" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="37.33203125" customWidth="1"/>
@@ -1331,8 +1352,8 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
+      <c r="C3" s="64" t="s">
+        <v>61</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
@@ -1349,361 +1370,361 @@
       <c r="C5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
-    </row>
-    <row r="6" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="61" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="2:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
+    </row>
+    <row r="7" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+    </row>
+    <row r="8" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="50"/>
-    </row>
-    <row r="8" spans="2:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="50"/>
-    </row>
-    <row r="9" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="62" t="s">
-        <v>57</v>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="50"/>
-    </row>
-    <row r="10" spans="2:8" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="63" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
+        <v>60</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48" t="s">
+      <c r="D12" s="59"/>
+      <c r="E12" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="61" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="39"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
+        <v>41</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="2:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="37"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
     </row>
     <row r="16" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="41"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="36"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
+        <v>31</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="37"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
     </row>
     <row r="19" spans="2:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="61" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="51"/>
     </row>
     <row r="20" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="41"/>
+        <v>48</v>
+      </c>
+      <c r="G20" s="63"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="2:8" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="37"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="26"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="55"/>
     </row>
     <row r="22" spans="2:8" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="52" t="s">
-        <v>40</v>
+      <c r="B22" s="61" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="41"/>
+      <c r="H22" s="53"/>
     </row>
     <row r="23" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="36"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
+        <v>31</v>
+      </c>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
     </row>
     <row r="24" spans="2:8" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="37"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="26"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="35" t="s">
-        <v>41</v>
+      <c r="B25" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="51"/>
     </row>
     <row r="26" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="36"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
     </row>
     <row r="27" spans="2:8" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="37"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1722,16 +1743,17 @@
       <c r="F29" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="45"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="G25:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="B13:B15"/>
@@ -1740,14 +1762,16 @@
     <mergeCell ref="G16:H18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="G19:H21"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="G25:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{AC4A67D9-11BF-4303-9047-0ABB61D83492}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>